--- a/策划案/镇魂街/工作规划.xlsx
+++ b/策划案/镇魂街/工作规划.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -159,14 +159,6 @@
   </si>
   <si>
     <t>芦花古楼扩层-上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体节奏规划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>各系统产销感受敲定1天，各系统如何串联1天，各系统的开放节奏和前2天节奏1天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -200,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关卡与挂机关产销调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>普通关首通可获得升到+4级的经验，一部分的突破材料。
 挂机关卡可获得+4~+10的经验。
 前2章给的更富余些，依节奏规划，看什么时候让玩家挂机获得产出
@@ -211,12 +199,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>整体时间规划1天
-产销设计表制作2天
-填表1天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡与挂机关卡战力调整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,19 +230,66 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>神器阶段性技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>思考神器给什么阶段性技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>思考神器给什么阶段性技能，只写方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>截止时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体节奏规划，包括玩家等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各系统产销感受敲定1天，各系统如何串联1天，各系统的开放节奏和前2天节奏1天，玩家等级1天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人守护灵属性调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于寄灵人升级与主角等级合并，以及三阶段的变化，导致寄灵人和守护灵属性的变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论方案1天，执行1天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡与挂机关产销调整，包含守护灵成长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体时间规划1天
+产销设计表制作2天
+守护灵成长线设计1天
+填表1天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵专属武器现在已经是正式数值，需要讨论初期的一些刺激性投放。这个版本不增加新卡牌，当前的卡牌通灵已经是正式数值。是否还要做其他系统不确定。需要讨论得出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期数值体验跑调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器技能，专属武器技能核对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和天悦对下神器技能和专属武器技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3天数值调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过如上调整后，前期关卡的变化。前期关卡调整，调6章。同时配置一些目标奖励，主线任务。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -820,69 +849,69 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1234,12 +1263,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1248,10 +1277,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1262,26 +1291,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1290,10 +1319,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -1302,147 +1331,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1455,16 +1488,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -1490,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,7 +1535,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" s="38">
+      <c r="C1" s="18">
         <v>43577</v>
       </c>
     </row>
@@ -1518,7 +1547,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>32</v>
@@ -1534,150 +1563,184 @@
       <c r="B3" s="15">
         <v>3</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="19">
         <f>C1+B3-1</f>
         <v>43579</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B4" s="15">
-        <v>3</v>
-      </c>
-      <c r="C4" s="39">
+        <v>4</v>
+      </c>
+      <c r="C4" s="19">
         <f>C3+B4</f>
-        <v>43582</v>
+        <v>43583</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B5" s="15">
-        <v>3</v>
-      </c>
-      <c r="C5" s="39">
-        <f t="shared" ref="C5:C9" si="0">C4+B5</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="19">
+        <f>C4+B5</f>
         <v>43585</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B6" s="15">
-        <v>4</v>
-      </c>
-      <c r="C6" s="39">
-        <f>C5+B6+4</f>
-        <v>43593</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
+        <f>C5+B6+5</f>
+        <v>43595</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="39">
-        <f t="shared" si="0"/>
-        <v>43595</v>
+      <c r="C7" s="19">
+        <f>C6+B7+1</f>
+        <v>43598</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="39">
-        <f>C7+B8+2</f>
-        <v>43600</v>
+      <c r="C8" s="19">
+        <f>C7+B8</f>
+        <v>43601</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B9" s="15">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19">
+        <f>C8+B9+1</f>
+        <v>43605</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
+        <f>C9+B10</f>
+        <v>43607</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="16" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="39">
-        <f t="shared" si="0"/>
-        <v>43601</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="19">
+        <f>C10+B11</f>
+        <v>43608</v>
+      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="15">
+        <v>6</v>
+      </c>
+      <c r="C12" s="19">
+        <f>C11+B12+2</f>
+        <v>43616</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="15">
+        <v>5</v>
+      </c>
+      <c r="C13" s="19">
+        <f>C12+B13+2</f>
+        <v>43623</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
     </row>
@@ -1694,6 +1757,20 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/策划案/镇魂街/工作规划.xlsx
+++ b/策划案/镇魂街/工作规划.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -159,10 +159,6 @@
   </si>
   <si>
     <t>芦花古楼扩层-上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩层1天，配关1天。神器系统的初始属性提高，因芦花古楼层数引起的消耗变化1天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -290,6 +286,45 @@
   </si>
   <si>
     <t>经过如上调整后，前期关卡的变化。前期关卡调整，调6章。同时配置一些目标奖励，主线任务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩层1天，配关1天。神器系统的初始属性提高，因芦花古楼层数引起的消耗变化1天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月24日，芦花古楼神器调整，先不配关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS配多个，争抢型。
+个人BOSS掉落神器碎片。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人BOSS设计表1天
+神器碎片投放1天
+配表1天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼-神器产出调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼只产芦花币，芦花币可买神器碎片宝箱，每日限购。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计+配表1天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +835,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -853,6 +888,21 @@
     <xf numFmtId="58" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,20 +948,8 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="8" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1263,12 +1301,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1277,10 +1315,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1291,26 +1329,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1319,10 +1357,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -1331,151 +1369,147 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1488,12 +1522,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -1519,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,14 +1570,15 @@
     <col min="3" max="3" width="11.375" style="16" customWidth="1"/>
     <col min="4" max="4" width="40.375" style="16" customWidth="1"/>
     <col min="5" max="5" width="59" customWidth="1"/>
+    <col min="6" max="6" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="18">
         <v>43577</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -1547,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>32</v>
@@ -1555,8 +1594,11 @@
       <c r="E2" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
@@ -1568,15 +1610,18 @@
         <v>43579</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="15">
         <v>4</v>
@@ -1586,15 +1631,16 @@
         <v>43583</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
@@ -1604,15 +1650,16 @@
         <v>43585</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="B6" s="15">
         <v>5</v>
@@ -1622,104 +1669,114 @@
         <v>43595</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B7" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="19">
-        <f>C6+B7+1</f>
-        <v>43598</v>
+        <f>C6+B7+2</f>
+        <v>43600</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B8" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="19">
         <f>C7+B8</f>
         <v>43601</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19">
+        <f>C8+B9</f>
+        <v>43603</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19">
+        <f>C9+B10+2</f>
+        <v>43608</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="15">
+      <c r="E10" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="15">
         <v>3</v>
       </c>
-      <c r="C9" s="19">
-        <f>C8+B9+1</f>
-        <v>43605</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="15">
+      <c r="C11" s="19">
+        <f>C10+B11+1</f>
+        <v>43612</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="15">
         <v>2</v>
-      </c>
-      <c r="C10" s="19">
-        <f>C9+B10</f>
-        <v>43607</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="16" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19">
-        <f>C10+B11</f>
-        <v>43608</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="15">
-        <v>6</v>
       </c>
       <c r="C12" s="19">
         <f>C11+B12+2</f>
@@ -1727,54 +1784,95 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <f>C12+B13</f>
+        <v>43617</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="15">
+        <v>6</v>
+      </c>
+      <c r="C14" s="19">
+        <f>C13+B14+2</f>
+        <v>43625</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="15">
         <v>5</v>
       </c>
-      <c r="C13" s="19">
-        <f>C12+B13+2</f>
-        <v>43623</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="19">
+        <f>C14+B15+2</f>
+        <v>43632</v>
+      </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/策划案/镇魂街/工作规划.xlsx
+++ b/策划案/镇魂街/工作规划.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>芦花古楼扩层-上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩层1天，配关1天。神器系统的初始属性提高，因芦花古楼层数引起的消耗变化1天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -188,13 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>普通关首通可获得升到+4级的经验，一部分的突破材料。
-挂机关卡可获得+4~+10的经验。
-前2章给的更富余些，依节奏规划，看什么时候让玩家挂机获得产出
-思考各挂机点的停留时间，以及各成长线的消耗。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡与挂机关卡战力调整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,122 +206,96 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体节奏规划，包括玩家等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各系统产销感受敲定1天，各系统如何串联1天，各系统的开放节奏和前2天节奏1天，玩家等级1天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵专属武器现在已经是正式数值，需要讨论初期的一些刺激性投放。这个版本不增加新卡牌，当前的卡牌通灵已经是正式数值。是否还要做其他系统不确定。需要讨论得出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期数值体验跑调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器技能，专属武器技能核对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和天悦对下神器技能和专属武器技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前3天数值调整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过如上调整后，前期关卡的变化。前期关卡调整，调6章。同时配置一些目标奖励，主线任务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼，个人BOSS，神器，专属武器强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只做规划表，不填表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济总表-经验，突破，金币线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济总表-补齐2,3天的规划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗总表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据2，3天的规划，再调下产销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月9号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月11号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>寄灵人技能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新系统，寄灵人洗练技能设计
-寄灵人技能概率设计
-配置数据结构设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新系统，寄灵人洗练技能设计，0.5天
-寄灵人技能概率设计，1天
-技能配置表设计与填表，1天
-洗练配置表设计与填表，0.5天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体节奏规划，包括玩家等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>各系统产销感受敲定1天，各系统如何串联1天，各系统的开放节奏和前2天节奏1天，玩家等级1天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人守护灵属性调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于寄灵人升级与主角等级合并，以及三阶段的变化，导致寄灵人和守护灵属性的变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论方案1天，执行1天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡与挂机关产销调整，包含守护灵成长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体时间规划1天
-产销设计表制作2天
-守护灵成长线设计1天
-填表1天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵专属武器现在已经是正式数值，需要讨论初期的一些刺激性投放。这个版本不增加新卡牌，当前的卡牌通灵已经是正式数值。是否还要做其他系统不确定。需要讨论得出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前期数值体验跑调</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器技能，专属武器技能核对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和天悦对下神器技能和专属武器技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前3天数值调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过如上调整后，前期关卡的变化。前期关卡调整，调6章。同时配置一些目标奖励，主线任务。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩层1天，配关1天。神器系统的初始属性提高，因芦花古楼层数引起的消耗变化1天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月24日，芦花古楼神器调整，先不配关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人BOSS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人BOSS配多个，争抢型。
-个人BOSS掉落神器碎片。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人BOSS设计表1天
-神器碎片投放1天
-配表1天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼-神器产出调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼只产芦花币，芦花币可买神器碎片宝箱，每日限购。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计+配表1天</t>
+    <t>5月15号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡填表，主线，芦花古楼，个人BOSS，挂机派遣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打个版本体验下，再看看要调什么。
+还身下目标系统，钻石的产销</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -798,6 +769,32 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -835,7 +832,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -888,6 +885,54 @@
     <xf numFmtId="58" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,53 +948,14 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="8" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1301,12 +1307,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1315,10 +1321,10 @@
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1329,26 +1335,26 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1357,10 +1363,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -1369,147 +1375,151 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1522,16 +1532,12 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -1557,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1570,15 +1576,14 @@
     <col min="3" max="3" width="11.375" style="16" customWidth="1"/>
     <col min="4" max="4" width="40.375" style="16" customWidth="1"/>
     <col min="5" max="5" width="59" customWidth="1"/>
-    <col min="6" max="6" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C1" s="18">
         <v>43577</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>32</v>
@@ -1594,11 +1599,8 @@
       <c r="E2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>33</v>
       </c>
@@ -1610,18 +1612,15 @@
         <v>43579</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="15">
         <v>4</v>
@@ -1631,16 +1630,15 @@
         <v>43583</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" s="15">
         <v>2</v>
@@ -1649,230 +1647,225 @@
         <f>C4+B5</f>
         <v>43585</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>51</v>
-      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="19">
-        <f>C5+B6+5</f>
-        <v>43595</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43588</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="19">
+        <v>43591</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" s="16" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="19">
+        <v>43592</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" s="16" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="15">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19">
-        <f>C6+B7+2</f>
-        <v>43600</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="20">
+        <v>43603</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="15">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19">
-        <f>C7+B8</f>
-        <v>43601</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="19">
-        <f>C8+B9</f>
-        <v>43603</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="15">
-        <v>3</v>
-      </c>
-      <c r="C10" s="19">
-        <f>C9+B10+2</f>
-        <v>43608</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="15">
-        <v>3</v>
-      </c>
-      <c r="C11" s="19">
-        <f>C10+B11+1</f>
-        <v>43612</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="19">
-        <f>C11+B12+2</f>
-        <v>43616</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" s="16" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="15">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19">
-        <f>C12+B13</f>
-        <v>43617</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="15">
-        <v>6</v>
-      </c>
-      <c r="C14" s="19">
-        <f>C13+B14+2</f>
-        <v>43625</v>
-      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="19">
-        <f>C14+B15+2</f>
-        <v>43632</v>
-      </c>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="16" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="15">
+        <v>6</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="15">
+        <v>5</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
